--- a/document/excel_upload_자료/TBL_EXP_VALUATION_REDUCTION_YEAR.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_VALUATION_REDUCTION_YEAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99E1FC-C83A-4E5C-9AD5-14B51B4081DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E88F02-443D-44BE-97DB-08D55FCB5BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1320" windowWidth="21600" windowHeight="11325" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="2055" yWindow="2025" windowWidth="23010" windowHeight="12480" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,28 +77,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>BUYER_ID</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>25FC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITEM_NAME</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>DEPTH</t>
-  </si>
-  <si>
-    <t>ORDER_NO</t>
-  </si>
-  <si>
     <t>자본(순자산)</t>
   </si>
   <si>
@@ -228,6 +210,54 @@
   </si>
   <si>
     <t>23867.3억원</t>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들여쓰기 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -869,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -912,10 +942,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
@@ -928,57 +958,57 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
+      <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>2023</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,13 +1019,13 @@
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" s="16">
         <v>161304</v>
@@ -1009,16 +1039,16 @@
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>2023</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,13 +1059,13 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" s="16">
         <v>502507</v>
@@ -1049,16 +1079,16 @@
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2023</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,16 +1099,16 @@
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>2023</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1089,16 +1119,16 @@
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>2023</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,16 +1139,16 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>2023</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,16 +1159,16 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>2023</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1149,16 +1179,16 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>2023</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1169,16 +1199,16 @@
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>2025</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1189,13 +1219,13 @@
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>2025</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D17" s="16">
         <v>2470130</v>
@@ -1209,13 +1239,13 @@
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>2025</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" s="19">
         <v>200000</v>
@@ -1229,13 +1259,13 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>2025</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D19" s="16">
         <v>1766626</v>
@@ -1249,16 +1279,16 @@
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>2025</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1269,16 +1299,16 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>2025</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1289,16 +1319,16 @@
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>2025</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1309,16 +1339,16 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>2025</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1329,16 +1359,16 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>2025</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1349,16 +1379,16 @@
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>2025</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1369,16 +1399,16 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
         <v>2028</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1389,13 +1419,13 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>2028</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D27" s="16">
         <v>23038588</v>
@@ -1409,13 +1439,13 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>2028</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D28" s="19">
         <v>200000</v>
@@ -1429,13 +1459,13 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
         <v>2028</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" s="16">
         <v>11645240</v>
@@ -1449,16 +1479,16 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>2028</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1469,16 +1499,16 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <v>2028</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1489,16 +1519,16 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
         <v>2028</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1509,16 +1539,16 @@
     </row>
     <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
         <v>2028</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1529,16 +1559,16 @@
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
         <v>2028</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1549,16 +1579,16 @@
     </row>
     <row r="35" spans="1:6" ht="29.25" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
         <v>2028</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1569,16 +1599,16 @@
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1">
         <v>2030</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1589,13 +1619,13 @@
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
         <v>2030</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D37" s="16">
         <v>85412708</v>
@@ -1609,13 +1639,13 @@
     </row>
     <row r="38" spans="1:6" ht="17.25" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1">
         <v>2030</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D38" s="19">
         <v>200000</v>
@@ -1629,13 +1659,13 @@
     </row>
     <row r="39" spans="1:6" ht="17.25" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <v>2030</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D39" s="16">
         <v>40940296</v>
@@ -1649,16 +1679,16 @@
     </row>
     <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
         <v>2030</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1669,16 +1699,16 @@
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
         <v>2030</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1689,16 +1719,16 @@
     </row>
     <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
         <v>2030</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1709,16 +1739,16 @@
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1">
         <v>2030</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1729,16 +1759,16 @@
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <v>2030</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1749,16 +1779,16 @@
     </row>
     <row r="45" spans="1:6" ht="29.25" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
         <v>2030</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1769,16 +1799,16 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1">
         <v>2033</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1789,13 +1819,13 @@
     </row>
     <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
         <v>2033</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D47" s="16">
         <v>575377602</v>
@@ -1809,13 +1839,13 @@
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
         <v>2033</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D48" s="19">
         <v>200000</v>
@@ -1829,13 +1859,13 @@
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <v>2033</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D49" s="16">
         <v>269870113</v>
@@ -1849,16 +1879,16 @@
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>2033</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1869,16 +1899,16 @@
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
         <v>2033</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1889,16 +1919,16 @@
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
         <v>2033</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1909,16 +1939,16 @@
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1">
         <v>2033</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1929,16 +1959,16 @@
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1">
         <v>2033</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1949,16 +1979,16 @@
     </row>
     <row r="55" spans="1:6" ht="29.25" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1">
         <v>2033</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1969,16 +1999,16 @@
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1">
         <v>2036</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1989,13 +2019,13 @@
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1">
         <v>2036</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D57" s="17">
         <v>1422129893</v>
@@ -2009,13 +2039,13 @@
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
         <v>2036</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D58" s="20">
         <v>200000</v>
@@ -2029,13 +2059,13 @@
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
         <v>2036</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D59" s="17">
         <v>333534460</v>
@@ -2049,13 +2079,13 @@
     </row>
     <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1">
         <v>2036</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D60" s="20">
         <v>527500</v>
@@ -2069,16 +2099,16 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1">
         <v>2036</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2089,16 +2119,16 @@
     </row>
     <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1">
         <v>2036</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2109,16 +2139,16 @@
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1">
         <v>2036</v>
       </c>
       <c r="C63" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2129,16 +2159,16 @@
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1">
         <v>2036</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2149,16 +2179,16 @@
     </row>
     <row r="65" spans="1:6" ht="29.25" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1">
         <v>2036</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E65">
         <v>1</v>
